--- a/Fase 2/Evidencias Proyecto/COMPARATIVO METRICAS MODELOS PREDICTIVOS.xlsx
+++ b/Fase 2/Evidencias Proyecto/COMPARATIVO METRICAS MODELOS PREDICTIVOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CRISTOPHER\Dropbox\Pesonal\DUOC\8bo semestre\CAPSTONE\CAPSTONE-2026-2\Fase 2\Evidencias Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D2DF37-771D-498E-B91E-C68B86611A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0978BB0F-2EB4-472F-825B-65B4684BDC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{05C6BD18-DEBE-4F50-9CD8-9A9398491196}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{05C6BD18-DEBE-4F50-9CD8-9A9398491196}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparativos" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="315">
   <si>
     <t>Genero</t>
   </si>
@@ -994,7 +994,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1004,6 +1004,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1199,7 +1206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1208,18 +1215,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1231,15 +1226,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1574,89 +1582,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4CA487-8F67-4A9A-9938-75067F78B81C}">
-  <dimension ref="B1:U53"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="2.109375" customWidth="1"/>
     <col min="17" max="17" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="E2" s="23"/>
-      <c r="G2" s="9" t="s">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E2" s="19"/>
+      <c r="G2" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
-      <c r="M2" s="9" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="M2" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11"/>
-      <c r="R2" s="9" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
+      <c r="R2" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="11"/>
-    </row>
-    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="23"/>
-      <c r="G3" s="17" t="s">
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="27"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="19"/>
+      <c r="G3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="15" t="s">
         <v>6</v>
       </c>
       <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="U3" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="23"/>
-      <c r="G4" s="12">
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="19"/>
+      <c r="G4" s="8">
         <f>AVERAGE(G8:G53)</f>
         <v>215.72086956521744</v>
       </c>
@@ -1668,13 +1676,13 @@
         <f t="shared" si="0"/>
         <v>42.383260869565213</v>
       </c>
-      <c r="J4" s="13">
-        <f t="shared" si="0"/>
+      <c r="J4" s="9">
+        <f>AVERAGE(J8:J53)</f>
         <v>0.80068260869565233</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="12">
+      <c r="M4" s="8">
         <f>AVERAGE(M8:M53)</f>
         <v>366.58195652173907</v>
       </c>
@@ -1691,7 +1699,7 @@
         <v>0.67344782608695675</v>
       </c>
       <c r="Q4" s="1"/>
-      <c r="R4" s="12">
+      <c r="R4" s="8">
         <f>AVERAGE(R8:R53)</f>
         <v>576.42478260869552</v>
       </c>
@@ -1708,80 +1716,81 @@
         <v>0.36501086956521733</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="G6" s="8" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G6" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="M6" s="8" t="s">
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="M6" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="R6" s="8" t="s">
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="R6" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="K7" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="20" t="s">
+      <c r="R7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="S7" s="21" t="s">
+      <c r="S7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="T7" s="21" t="s">
+      <c r="T7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="U7" s="22" t="s">
+      <c r="U7" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -1834,7 +1843,7 @@
         <v>-0.17100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>10</v>
       </c>
@@ -1887,7 +1896,7 @@
         <v>0.56430000000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>44</v>
       </c>
@@ -1940,7 +1949,7 @@
         <v>0.62929999999999997</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>33</v>
       </c>
@@ -1993,7 +2002,7 @@
         <v>0.4516</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>35</v>
       </c>
@@ -2046,7 +2055,7 @@
         <v>-0.315</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -2099,7 +2108,7 @@
         <v>0.55320000000000003</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>15</v>
       </c>
@@ -2152,7 +2161,7 @@
         <v>0.40029999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>2</v>
       </c>
@@ -2205,7 +2214,7 @@
         <v>0.15479999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>16</v>
       </c>
@@ -2258,7 +2267,7 @@
         <v>0.43469999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>53</v>
       </c>
@@ -2311,7 +2320,7 @@
         <v>0.49859999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>55</v>
       </c>
@@ -2364,7 +2373,7 @@
         <v>0.16520000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>36</v>
       </c>
@@ -2417,7 +2426,7 @@
         <v>0.78649999999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -2470,7 +2479,7 @@
         <v>0.66169999999999995</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>25</v>
       </c>
@@ -2523,7 +2532,7 @@
         <v>0.20119999999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>9</v>
       </c>
@@ -2576,7 +2585,7 @@
         <v>0.59819999999999995</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>13</v>
       </c>
@@ -2629,7 +2638,7 @@
         <v>0.3422</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>51</v>
       </c>
@@ -2682,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>45</v>
       </c>
@@ -2735,7 +2744,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>37</v>
       </c>
@@ -2788,7 +2797,7 @@
         <v>0.49249999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>32</v>
       </c>
@@ -2841,7 +2850,7 @@
         <v>0.31169999999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>41</v>
       </c>
@@ -2894,7 +2903,7 @@
         <v>-3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>8</v>
       </c>
@@ -2947,7 +2956,7 @@
         <v>0.2082</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>43</v>
       </c>
@@ -3000,7 +3009,7 @@
         <v>-2.69E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>56</v>
       </c>
@@ -3053,7 +3062,7 @@
         <v>0.49990000000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>0</v>
       </c>
@@ -3106,7 +3115,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>22</v>
       </c>
@@ -3159,7 +3168,7 @@
         <v>-0.20019999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>1</v>
       </c>
@@ -3212,7 +3221,7 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>31</v>
       </c>
@@ -3265,7 +3274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>50</v>
       </c>
@@ -3318,7 +3327,7 @@
         <v>0.55489999999999995</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>20</v>
       </c>
@@ -3371,7 +3380,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>4</v>
       </c>
@@ -3424,7 +3433,7 @@
         <v>0.54849999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>29</v>
       </c>
@@ -3477,7 +3486,7 @@
         <v>0.39360000000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>24</v>
       </c>
@@ -3530,7 +3539,7 @@
         <v>0.4839</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>5</v>
       </c>
@@ -3583,7 +3592,7 @@
         <v>0.24490000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>19</v>
       </c>
@@ -3636,7 +3645,7 @@
         <v>0.45889999999999997</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>23</v>
       </c>
@@ -3689,7 +3698,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>21</v>
       </c>
@@ -3742,7 +3751,7 @@
         <v>2.87E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>28</v>
       </c>
@@ -3795,7 +3804,7 @@
         <v>0.67230000000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>26</v>
       </c>
@@ -3848,7 +3857,7 @@
         <v>0.25659999999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>30</v>
       </c>
@@ -3901,7 +3910,7 @@
         <v>0.47660000000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>6</v>
       </c>
@@ -3954,7 +3963,7 @@
         <v>0.5242</v>
       </c>
     </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>47</v>
       </c>
@@ -4007,7 +4016,7 @@
         <v>8.48E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>42</v>
       </c>
@@ -4060,7 +4069,7 @@
         <v>0.22170000000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>14</v>
       </c>
@@ -4113,7 +4122,7 @@
         <v>0.26190000000000002</v>
       </c>
     </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>38</v>
       </c>
@@ -4166,7 +4175,7 @@
         <v>-2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>12</v>
       </c>
@@ -4236,48 +4245,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2DBF8E-8679-407A-8564-78A42D4304CA}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>3</v>
       </c>
@@ -4306,7 +4315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>10</v>
       </c>
@@ -4335,7 +4344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44</v>
       </c>
@@ -4364,7 +4373,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>33</v>
       </c>
@@ -4393,7 +4402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>35</v>
       </c>
@@ -4422,7 +4431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>11</v>
       </c>
@@ -4451,7 +4460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>15</v>
       </c>
@@ -4480,7 +4489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -4509,7 +4518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>16</v>
       </c>
@@ -4538,7 +4547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>53</v>
       </c>
@@ -4567,7 +4576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>55</v>
       </c>
@@ -4596,7 +4605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>36</v>
       </c>
@@ -4625,7 +4634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>17</v>
       </c>
@@ -4654,7 +4663,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>25</v>
       </c>
@@ -4683,7 +4692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -4712,7 +4721,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -4741,7 +4750,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>51</v>
       </c>
@@ -4770,7 +4779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45</v>
       </c>
@@ -4799,7 +4808,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>37</v>
       </c>
@@ -4828,7 +4837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>32</v>
       </c>
@@ -4857,7 +4866,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>41</v>
       </c>
@@ -4886,7 +4895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>8</v>
       </c>
@@ -4915,7 +4924,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43</v>
       </c>
@@ -4944,7 +4953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>56</v>
       </c>
@@ -4973,7 +4982,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -5002,7 +5011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>22</v>
       </c>
@@ -5031,7 +5040,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -5060,7 +5069,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>31</v>
       </c>
@@ -5089,7 +5098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>50</v>
       </c>
@@ -5118,7 +5127,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>20</v>
       </c>
@@ -5147,7 +5156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -5176,7 +5185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -5205,7 +5214,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>24</v>
       </c>
@@ -5234,7 +5243,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>5</v>
       </c>
@@ -5263,7 +5272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>19</v>
       </c>
@@ -5292,7 +5301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>23</v>
       </c>
@@ -5321,7 +5330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>21</v>
       </c>
@@ -5350,7 +5359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>28</v>
       </c>
@@ -5379,7 +5388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>26</v>
       </c>
@@ -5408,7 +5417,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>30</v>
       </c>
@@ -5437,7 +5446,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>6</v>
       </c>
@@ -5466,7 +5475,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>47</v>
       </c>
@@ -5495,7 +5504,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -5524,7 +5533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>14</v>
       </c>
@@ -5553,7 +5562,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>38</v>
       </c>
@@ -5582,7 +5591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>12</v>
       </c>
@@ -5618,28 +5627,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22E533C-659E-45AF-81E1-7EF76ECA4A46}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5650,27 +5658,26 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>31</v>
       </c>
@@ -5683,30 +5690,26 @@
       <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2" t="str">
-        <f>B2&amp;C2&amp;D2</f>
-        <v>MUJEZATOFIES</v>
+      <c r="E2" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="2">
+      <c r="G2" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I2" s="29">
+      <c r="H2" s="24">
         <v>1</v>
       </c>
-      <c r="J2" s="2">
+      <c r="I2" s="2">
         <v>11</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>51</v>
       </c>
@@ -5719,30 +5722,26 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="str">
-        <f t="shared" ref="E3:E58" si="0">B3&amp;C3&amp;D3</f>
-        <v>NIÑUSANDCASU</v>
+      <c r="E3" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G3" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="2">
+      <c r="G3" s="2">
         <v>1.1299999999999999</v>
       </c>
-      <c r="I3" s="29">
+      <c r="H3" s="24">
         <v>1</v>
       </c>
-      <c r="J3" s="2">
+      <c r="I3" s="2">
         <v>20</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>56</v>
       </c>
@@ -5755,30 +5754,26 @@
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>UNIXZAPAURBA</v>
+      <c r="E4" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="2" t="s">
         <v>174</v>
       </c>
+      <c r="G4" s="2">
+        <v>21.97</v>
+      </c>
       <c r="H4" s="2">
-        <v>21.97</v>
+        <v>0.49990000000000001</v>
       </c>
       <c r="I4" s="2">
-        <v>0.49990000000000001</v>
-      </c>
-      <c r="J4" s="2">
         <v>41</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>11</v>
       </c>
@@ -5791,30 +5786,26 @@
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBZATOCASU</v>
+      <c r="E5" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="G5" s="2">
+        <v>57.09</v>
+      </c>
       <c r="H5" s="2">
-        <v>57.09</v>
+        <v>0.55320000000000003</v>
       </c>
       <c r="I5" s="2">
-        <v>0.55320000000000003</v>
-      </c>
-      <c r="J5" s="2">
         <v>45</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>9</v>
       </c>
@@ -5827,30 +5818,26 @@
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBZAPAOUTD</v>
+      <c r="E6" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G6" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="G6" s="2">
+        <v>57.61</v>
+      </c>
       <c r="H6" s="2">
-        <v>57.61</v>
+        <v>0.59819999999999995</v>
       </c>
       <c r="I6" s="2">
-        <v>0.59819999999999995</v>
-      </c>
-      <c r="J6" s="2">
         <v>45</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45</v>
       </c>
@@ -5863,30 +5850,26 @@
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑMSANDCASU</v>
+      <c r="E7" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="G7" s="2">
+        <v>58.22</v>
+      </c>
       <c r="H7" s="2">
-        <v>58.22</v>
+        <v>0.43</v>
       </c>
       <c r="I7" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="J7" s="2">
         <v>35</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>44</v>
       </c>
@@ -5899,30 +5882,26 @@
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑMBOTICASU</v>
+      <c r="E8" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="G8" s="2">
+        <v>58.68</v>
+      </c>
       <c r="H8" s="2">
-        <v>58.68</v>
+        <v>0.62929999999999997</v>
       </c>
       <c r="I8" s="2">
-        <v>0.62929999999999997</v>
-      </c>
-      <c r="J8" s="2">
         <v>36</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>53</v>
       </c>
@@ -5935,30 +5914,26 @@
       <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑUZAPAOUTD</v>
+      <c r="E9" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="2" t="s">
         <v>188</v>
       </c>
+      <c r="G9" s="2">
+        <v>67.849999999999994</v>
+      </c>
       <c r="H9" s="2">
-        <v>67.849999999999994</v>
+        <v>0.49859999999999999</v>
       </c>
       <c r="I9" s="2">
-        <v>0.49859999999999999</v>
-      </c>
-      <c r="J9" s="2">
         <v>19</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>28</v>
       </c>
@@ -5971,30 +5946,26 @@
       <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEZAPASERV</v>
+      <c r="E10" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G10" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="G10" s="2">
+        <v>72.75</v>
+      </c>
       <c r="H10" s="2">
-        <v>72.75</v>
+        <v>0.67230000000000001</v>
       </c>
       <c r="I10" s="2">
-        <v>0.67230000000000001</v>
-      </c>
-      <c r="J10" s="2">
         <v>13</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>20</v>
       </c>
@@ -6007,30 +5978,26 @@
       <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEPUNTCASU</v>
+      <c r="E11" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G11" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="G11" s="2">
+        <v>75.25</v>
+      </c>
       <c r="H11" s="2">
-        <v>75.25</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="I11" s="2">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="J11" s="2">
         <v>18</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>19</v>
       </c>
@@ -6043,30 +6010,26 @@
       <c r="D12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEEVAPANT</v>
+      <c r="E12" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G12" s="2" t="s">
         <v>197</v>
       </c>
+      <c r="G12" s="2">
+        <v>77</v>
+      </c>
       <c r="H12" s="2">
-        <v>77</v>
+        <v>0.45889999999999997</v>
       </c>
       <c r="I12" s="2">
-        <v>0.45889999999999997</v>
-      </c>
-      <c r="J12" s="2">
         <v>16</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -6079,30 +6042,26 @@
       <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBBOAGBASI</v>
+      <c r="E13" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G13" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="G13" s="2">
+        <v>82.93</v>
+      </c>
       <c r="H13" s="2">
-        <v>82.93</v>
+        <v>0.52</v>
       </c>
       <c r="I13" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="J13" s="2">
         <v>23</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>30</v>
       </c>
@@ -6115,30 +6074,26 @@
       <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEZATOCASU</v>
+      <c r="E14" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G14" s="2" t="s">
         <v>203</v>
       </c>
+      <c r="G14" s="2">
+        <v>83.58</v>
+      </c>
       <c r="H14" s="2">
-        <v>83.58</v>
+        <v>0.47660000000000002</v>
       </c>
       <c r="I14" s="2">
-        <v>0.47660000000000002</v>
-      </c>
-      <c r="J14" s="2">
         <v>45</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43</v>
       </c>
@@ -6151,30 +6106,26 @@
       <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑMBOTACASU</v>
+      <c r="E15" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G15" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="G15" s="2">
+        <v>85.17</v>
+      </c>
       <c r="H15" s="2">
-        <v>85.17</v>
+        <v>-2.69E-2</v>
       </c>
       <c r="I15" s="2">
-        <v>-2.69E-2</v>
-      </c>
-      <c r="J15" s="2">
         <v>34</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -6187,30 +6138,26 @@
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBSANDCASU</v>
+      <c r="E16" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G16" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="G16" s="2">
+        <v>86.43</v>
+      </c>
       <c r="H16" s="2">
-        <v>86.43</v>
+        <v>0.54849999999999999</v>
       </c>
       <c r="I16" s="2">
-        <v>0.54849999999999999</v>
-      </c>
-      <c r="J16" s="2">
         <v>37</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -6223,30 +6170,26 @@
       <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEAQUANA</v>
+      <c r="E17" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G17" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="G17" s="2">
+        <v>89.7</v>
+      </c>
       <c r="H17" s="2">
-        <v>89.7</v>
+        <v>0.3422</v>
       </c>
       <c r="I17" s="2">
-        <v>0.3422</v>
-      </c>
-      <c r="J17" s="2">
         <v>26</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>36</v>
       </c>
@@ -6259,30 +6202,26 @@
       <c r="D18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑHSANDCASU</v>
+      <c r="E18" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G18" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="G18" s="2">
+        <v>91.02</v>
+      </c>
       <c r="H18" s="2">
-        <v>91.02</v>
+        <v>0.78649999999999998</v>
       </c>
       <c r="I18" s="2">
-        <v>0.78649999999999998</v>
-      </c>
-      <c r="J18" s="2">
         <v>27</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -6295,30 +6234,26 @@
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBBOTIOUTD</v>
+      <c r="E19" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="G19" s="2">
+        <v>98.07</v>
+      </c>
       <c r="H19" s="2">
-        <v>98.07</v>
+        <v>0.15479999999999999</v>
       </c>
       <c r="I19" s="2">
-        <v>0.15479999999999999</v>
-      </c>
-      <c r="J19" s="2">
         <v>10</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>23</v>
       </c>
@@ -6331,30 +6266,26 @@
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJESANDDEPO</v>
+      <c r="E20" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="2" t="s">
         <v>219</v>
       </c>
+      <c r="G20" s="2">
+        <v>99.11</v>
+      </c>
       <c r="H20" s="2">
-        <v>99.11</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="I20" s="2">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="J20" s="2">
         <v>17</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>29</v>
       </c>
@@ -6367,30 +6298,26 @@
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEZAPAURBA</v>
+      <c r="E21" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G21" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="G21" s="2">
+        <v>102.27</v>
+      </c>
       <c r="H21" s="2">
-        <v>102.27</v>
+        <v>0.39360000000000001</v>
       </c>
       <c r="I21" s="2">
-        <v>0.39360000000000001</v>
-      </c>
-      <c r="J21" s="2">
         <v>45</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -6403,30 +6330,26 @@
       <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBBOTIVEST</v>
+      <c r="E22" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G22" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="G22" s="2">
+        <v>103.71</v>
+      </c>
       <c r="H22" s="2">
-        <v>103.71</v>
+        <v>-0.17100000000000001</v>
       </c>
       <c r="I22" s="2">
-        <v>-0.17100000000000001</v>
-      </c>
-      <c r="J22" s="2">
         <v>19</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>15</v>
       </c>
@@ -6439,30 +6362,26 @@
       <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEBOAGDISE</v>
+      <c r="E23" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G23" s="2" t="s">
         <v>225</v>
       </c>
+      <c r="G23" s="2">
+        <v>107.06</v>
+      </c>
       <c r="H23" s="2">
-        <v>107.06</v>
+        <v>0.40029999999999999</v>
       </c>
       <c r="I23" s="2">
-        <v>0.40029999999999999</v>
-      </c>
-      <c r="J23" s="2">
         <v>35</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>38</v>
       </c>
@@ -6475,30 +6394,26 @@
       <c r="D24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑHZAPAOUTD</v>
+      <c r="E24" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G24" s="2" t="s">
         <v>228</v>
       </c>
+      <c r="G24" s="2">
+        <v>109.88</v>
+      </c>
       <c r="H24" s="2">
-        <v>109.88</v>
+        <v>-2.2499999999999999E-2</v>
       </c>
       <c r="I24" s="2">
-        <v>-2.2499999999999999E-2</v>
-      </c>
-      <c r="J24" s="2">
         <v>30</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>16</v>
       </c>
@@ -6511,30 +6426,26 @@
       <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEBOTACASU</v>
+      <c r="E25" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G25" s="2" t="s">
         <v>231</v>
       </c>
+      <c r="G25" s="2">
+        <v>119.71</v>
+      </c>
       <c r="H25" s="2">
-        <v>119.71</v>
+        <v>0.43469999999999998</v>
       </c>
       <c r="I25" s="2">
-        <v>0.43469999999999998</v>
-      </c>
-      <c r="J25" s="2">
         <v>42</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>18</v>
       </c>
@@ -6547,30 +6458,26 @@
       <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEBOTIVEST</v>
+      <c r="E26" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G26" s="2" t="s">
         <v>234</v>
       </c>
+      <c r="G26" s="2">
+        <v>131.22</v>
+      </c>
       <c r="H26" s="2">
-        <v>131.22</v>
+        <v>0.15629999999999999</v>
       </c>
       <c r="I26" s="2">
-        <v>0.15629999999999999</v>
-      </c>
-      <c r="J26" s="2">
         <v>26</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>5</v>
       </c>
@@ -6583,30 +6490,26 @@
       <c r="D27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBSANDOUTD</v>
+      <c r="E27" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G27" s="2" t="s">
         <v>237</v>
       </c>
+      <c r="G27" s="2">
+        <v>132.47</v>
+      </c>
       <c r="H27" s="2">
-        <v>132.47</v>
+        <v>0.24490000000000001</v>
       </c>
       <c r="I27" s="2">
-        <v>0.24490000000000001</v>
-      </c>
-      <c r="J27" s="2">
         <v>28</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>17</v>
       </c>
@@ -6619,30 +6522,26 @@
       <c r="D28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEBOTICASU</v>
+      <c r="E28" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="2" t="s">
         <v>240</v>
       </c>
+      <c r="G28" s="2">
+        <v>133.08000000000001</v>
+      </c>
       <c r="H28" s="2">
-        <v>133.08000000000001</v>
+        <v>0.66169999999999995</v>
       </c>
       <c r="I28" s="2">
-        <v>0.66169999999999995</v>
-      </c>
-      <c r="J28" s="2">
         <v>45</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>12</v>
       </c>
@@ -6655,30 +6554,26 @@
       <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBZATOVEST</v>
+      <c r="E29" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G29" s="2" t="s">
         <v>242</v>
       </c>
+      <c r="G29" s="2">
+        <v>133.16999999999999</v>
+      </c>
       <c r="H29" s="2">
-        <v>133.16999999999999</v>
+        <v>0.32390000000000002</v>
       </c>
       <c r="I29" s="2">
-        <v>0.32390000000000002</v>
-      </c>
-      <c r="J29" s="2">
         <v>45</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>22</v>
       </c>
@@ -6691,30 +6586,26 @@
       <c r="D30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJESANDCASU</v>
+      <c r="E30" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G30" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="G30" s="2">
+        <v>138.86000000000001</v>
+      </c>
       <c r="H30" s="2">
-        <v>138.86000000000001</v>
+        <v>-0.20019999999999999</v>
       </c>
       <c r="I30" s="2">
-        <v>-0.20019999999999999</v>
-      </c>
-      <c r="J30" s="2">
         <v>43</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>35</v>
       </c>
@@ -6727,30 +6618,26 @@
       <c r="D31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑHBOTIVEST</v>
+      <c r="E31" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G31" s="2" t="s">
         <v>247</v>
       </c>
+      <c r="G31" s="2">
+        <v>139.97999999999999</v>
+      </c>
       <c r="H31" s="2">
-        <v>139.97999999999999</v>
+        <v>-0.315</v>
       </c>
       <c r="I31" s="2">
-        <v>-0.315</v>
-      </c>
-      <c r="J31" s="2">
         <v>22</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>55</v>
       </c>
@@ -6763,30 +6650,26 @@
       <c r="D32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑUZATOCASU</v>
+      <c r="E32" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G32" s="2" t="s">
         <v>249</v>
       </c>
+      <c r="G32" s="2">
+        <v>140.33000000000001</v>
+      </c>
       <c r="H32" s="2">
-        <v>140.33000000000001</v>
+        <v>0.16520000000000001</v>
       </c>
       <c r="I32" s="2">
-        <v>0.16520000000000001</v>
-      </c>
-      <c r="J32" s="2">
         <v>22</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>26</v>
       </c>
@@ -6799,30 +6682,26 @@
       <c r="D33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEZAPADEPO</v>
+      <c r="E33" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="G33" s="2" t="s">
         <v>251</v>
       </c>
+      <c r="G33" s="2">
+        <v>144.13</v>
+      </c>
       <c r="H33" s="2">
-        <v>144.13</v>
+        <v>0.25659999999999999</v>
       </c>
       <c r="I33" s="2">
-        <v>0.25659999999999999</v>
-      </c>
-      <c r="J33" s="2">
         <v>45</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>47</v>
       </c>
@@ -6835,30 +6714,26 @@
       <c r="D34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑMZAPAURBA</v>
+      <c r="E34" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G34" s="2" t="s">
         <v>253</v>
       </c>
+      <c r="G34" s="2">
+        <v>151.46</v>
+      </c>
       <c r="H34" s="2">
-        <v>151.46</v>
+        <v>8.48E-2</v>
       </c>
       <c r="I34" s="2">
-        <v>8.48E-2</v>
-      </c>
-      <c r="J34" s="2">
         <v>36</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>7</v>
       </c>
@@ -6871,30 +6746,26 @@
       <c r="D35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBZAPADEPO</v>
+      <c r="E35" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G35" s="2" t="s">
         <v>255</v>
       </c>
+      <c r="G35" s="2">
+        <v>152.47</v>
+      </c>
       <c r="H35" s="2">
-        <v>152.47</v>
+        <v>0.1119</v>
       </c>
       <c r="I35" s="2">
-        <v>0.1119</v>
-      </c>
-      <c r="J35" s="2">
         <v>40</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -6907,30 +6778,26 @@
       <c r="D36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBBOTICASU</v>
+      <c r="E36" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G36" s="2" t="s">
         <v>258</v>
       </c>
+      <c r="G36" s="2">
+        <v>158.55000000000001</v>
+      </c>
       <c r="H36" s="2">
-        <v>158.55000000000001</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="I36" s="2">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="J36" s="2">
         <v>43</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -6943,30 +6810,26 @@
       <c r="D37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑHBOTICASU</v>
+      <c r="E37" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G37" s="2" t="s">
         <v>260</v>
       </c>
+      <c r="G37" s="2">
+        <v>161.57</v>
+      </c>
       <c r="H37" s="2">
-        <v>161.57</v>
+        <v>3.6499999999999998E-2</v>
       </c>
       <c r="I37" s="2">
-        <v>3.6499999999999998E-2</v>
-      </c>
-      <c r="J37" s="2">
         <v>23</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>50</v>
       </c>
@@ -6979,30 +6842,26 @@
       <c r="D38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑUBOTICASU</v>
+      <c r="E38" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G38" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="G38" s="2">
+        <v>176.54</v>
+      </c>
       <c r="H38" s="2">
-        <v>176.54</v>
+        <v>0.55489999999999995</v>
       </c>
       <c r="I38" s="2">
-        <v>0.55489999999999995</v>
-      </c>
-      <c r="J38" s="2">
         <v>32</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>27</v>
       </c>
@@ -7015,30 +6874,26 @@
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEZAPAOUTD</v>
+      <c r="E39" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G39" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="G39" s="2">
+        <v>180.11</v>
+      </c>
       <c r="H39" s="2">
-        <v>180.11</v>
+        <v>0.4723</v>
       </c>
       <c r="I39" s="2">
-        <v>0.4723</v>
-      </c>
-      <c r="J39" s="2">
         <v>45</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -7051,30 +6906,26 @@
       <c r="D40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑHZAPAURBA</v>
+      <c r="E40" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G40" s="2" t="s">
         <v>266</v>
       </c>
+      <c r="G40" s="2">
+        <v>182.77</v>
+      </c>
       <c r="H40" s="2">
-        <v>182.77</v>
+        <v>0.24410000000000001</v>
       </c>
       <c r="I40" s="2">
-        <v>0.24410000000000001</v>
-      </c>
-      <c r="J40" s="2">
         <v>45</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>49</v>
       </c>
@@ -7087,30 +6938,26 @@
       <c r="D41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑUAQUANA</v>
+      <c r="E41" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G41" s="2" t="s">
         <v>268</v>
       </c>
+      <c r="G41" s="2">
+        <v>183.97</v>
+      </c>
       <c r="H41" s="2">
-        <v>183.97</v>
+        <v>0.27410000000000001</v>
       </c>
       <c r="I41" s="2">
-        <v>0.27410000000000001</v>
-      </c>
-      <c r="J41" s="2">
         <v>22</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>32</v>
       </c>
@@ -7123,30 +6970,26 @@
       <c r="D42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEZATOVEST</v>
+      <c r="E42" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G42" s="2" t="s">
         <v>271</v>
       </c>
+      <c r="G42" s="2">
+        <v>192.12</v>
+      </c>
       <c r="H42" s="2">
-        <v>192.12</v>
+        <v>0.31169999999999998</v>
       </c>
       <c r="I42" s="2">
-        <v>0.31169999999999998</v>
-      </c>
-      <c r="J42" s="2">
         <v>45</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>6</v>
       </c>
@@ -7159,30 +7002,26 @@
       <c r="D43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBSANDPLAY</v>
+      <c r="E43" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G43" s="2" t="s">
         <v>273</v>
       </c>
+      <c r="G43" s="2">
+        <v>198.47</v>
+      </c>
       <c r="H43" s="2">
-        <v>198.47</v>
+        <v>0.5242</v>
       </c>
       <c r="I43" s="2">
-        <v>0.5242</v>
-      </c>
-      <c r="J43" s="2">
         <v>39</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>24</v>
       </c>
@@ -7195,30 +7034,26 @@
       <c r="D44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJESANDPLAY</v>
+      <c r="E44" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="G44" s="2" t="s">
         <v>276</v>
       </c>
+      <c r="G44" s="2">
+        <v>200.26</v>
+      </c>
       <c r="H44" s="2">
-        <v>200.26</v>
+        <v>0.4839</v>
       </c>
       <c r="I44" s="2">
-        <v>0.4839</v>
-      </c>
-      <c r="J44" s="2">
         <v>33</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -7231,30 +7066,26 @@
       <c r="D45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑMBOAGBASI</v>
+      <c r="E45" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G45" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="G45" s="2">
+        <v>204.77</v>
+      </c>
       <c r="H45" s="2">
-        <v>204.77</v>
+        <v>-3.3999999999999998E-3</v>
       </c>
       <c r="I45" s="2">
-        <v>-3.3999999999999998E-3</v>
-      </c>
-      <c r="J45" s="2">
         <v>17</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>8</v>
       </c>
@@ -7267,30 +7098,26 @@
       <c r="D46" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBZAPAFUTB</v>
+      <c r="E46" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="G46" s="2" t="s">
         <v>281</v>
       </c>
+      <c r="G46" s="2">
+        <v>208.23</v>
+      </c>
       <c r="H46" s="2">
-        <v>208.23</v>
+        <v>0.2082</v>
       </c>
       <c r="I46" s="2">
-        <v>0.2082</v>
-      </c>
-      <c r="J46" s="2">
         <v>41</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>37</v>
       </c>
@@ -7303,30 +7130,26 @@
       <c r="D47" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑHZAPADEPO</v>
+      <c r="E47" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="G47" s="2" t="s">
         <v>283</v>
       </c>
+      <c r="G47" s="2">
+        <v>211.8</v>
+      </c>
       <c r="H47" s="2">
-        <v>211.8</v>
+        <v>0.49249999999999999</v>
       </c>
       <c r="I47" s="2">
-        <v>0.49249999999999999</v>
-      </c>
-      <c r="J47" s="2">
         <v>34</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>14</v>
       </c>
@@ -7339,30 +7162,26 @@
       <c r="D48" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEBOAGBASI</v>
+      <c r="E48" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G48" s="2" t="s">
         <v>286</v>
       </c>
+      <c r="G48" s="2">
+        <v>212.78</v>
+      </c>
       <c r="H48" s="2">
-        <v>212.78</v>
+        <v>0.26190000000000002</v>
       </c>
       <c r="I48" s="2">
-        <v>0.26190000000000002</v>
-      </c>
-      <c r="J48" s="2">
         <v>33</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>52</v>
       </c>
@@ -7375,30 +7194,26 @@
       <c r="D49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑUZAPADEPO</v>
+      <c r="E49" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G49" s="2" t="s">
         <v>288</v>
       </c>
+      <c r="G49" s="2">
+        <v>228.16</v>
+      </c>
       <c r="H49" s="2">
-        <v>228.16</v>
+        <v>0.13039999999999999</v>
       </c>
       <c r="I49" s="2">
-        <v>0.13039999999999999</v>
-      </c>
-      <c r="J49" s="2">
         <v>44</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>33</v>
       </c>
@@ -7411,30 +7226,26 @@
       <c r="D50" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑHBOAGDISE</v>
+      <c r="E50" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G50" s="2" t="s">
         <v>290</v>
       </c>
+      <c r="G50" s="2">
+        <v>266.08999999999997</v>
+      </c>
       <c r="H50" s="2">
-        <v>266.08999999999997</v>
+        <v>0.4516</v>
       </c>
       <c r="I50" s="2">
-        <v>0.4516</v>
-      </c>
-      <c r="J50" s="2">
         <v>17</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>10</v>
       </c>
@@ -7447,30 +7258,26 @@
       <c r="D51" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBZAPAURBA</v>
+      <c r="E51" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G51" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="G51" s="2">
+        <v>268.04000000000002</v>
+      </c>
       <c r="H51" s="2">
-        <v>268.04000000000002</v>
+        <v>0.56430000000000002</v>
       </c>
       <c r="I51" s="2">
-        <v>0.56430000000000002</v>
-      </c>
-      <c r="J51" s="2">
         <v>45</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>40</v>
       </c>
@@ -7483,30 +7290,26 @@
       <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑHZATOVEST</v>
+      <c r="E52" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G52" s="2" t="s">
         <v>296</v>
       </c>
+      <c r="G52" s="2">
+        <v>278.05</v>
+      </c>
       <c r="H52" s="2">
-        <v>278.05</v>
+        <v>0.2601</v>
       </c>
       <c r="I52" s="2">
-        <v>0.2601</v>
-      </c>
-      <c r="J52" s="2">
         <v>10</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>21</v>
       </c>
@@ -7519,30 +7322,26 @@
       <c r="D53" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEPUNTDEPO</v>
+      <c r="E53" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G53" s="2" t="s">
         <v>299</v>
       </c>
+      <c r="G53" s="2">
+        <v>284.47000000000003</v>
+      </c>
       <c r="H53" s="2">
-        <v>284.47000000000003</v>
+        <v>2.87E-2</v>
       </c>
       <c r="I53" s="2">
-        <v>2.87E-2</v>
-      </c>
-      <c r="J53" s="2">
         <v>29</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>48</v>
       </c>
@@ -7555,30 +7354,26 @@
       <c r="D54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑMZATOVEST</v>
+      <c r="E54" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G54" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="G54" s="2">
+        <v>285.32</v>
+      </c>
       <c r="H54" s="2">
-        <v>285.32</v>
+        <v>3.44E-2</v>
       </c>
       <c r="I54" s="2">
-        <v>3.44E-2</v>
-      </c>
-      <c r="J54" s="2">
         <v>41</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>46</v>
       </c>
@@ -7591,30 +7386,26 @@
       <c r="D55" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑMZAPADEPO</v>
+      <c r="E55" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G55" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="G55" s="2">
+        <v>287.22000000000003</v>
+      </c>
       <c r="H55" s="2">
-        <v>287.22000000000003</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="I55" s="2">
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="J55" s="2">
         <v>31</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -7627,30 +7418,26 @@
       <c r="D56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑUZAPAURBA</v>
+      <c r="E56" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G56" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="G56" s="2">
+        <v>315.61</v>
+      </c>
       <c r="H56" s="2">
-        <v>315.61</v>
+        <v>3.6799999999999999E-2</v>
       </c>
       <c r="I56" s="2">
-        <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="J56" s="2">
         <v>36</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>42</v>
       </c>
@@ -7663,30 +7450,26 @@
       <c r="D57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑMBOAGDISE</v>
+      <c r="E57" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G57" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="G57" s="2">
+        <v>343.44</v>
+      </c>
       <c r="H57" s="2">
-        <v>343.44</v>
+        <v>0.22170000000000001</v>
       </c>
       <c r="I57" s="2">
-        <v>0.22170000000000001</v>
-      </c>
-      <c r="J57" s="2">
         <v>24</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>25</v>
       </c>
@@ -7699,26 +7482,22 @@
       <c r="D58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJESANDVEST</v>
+      <c r="E58" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G58" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="G58" s="2">
+        <v>628.88</v>
+      </c>
       <c r="H58" s="2">
-        <v>628.88</v>
+        <v>0.20119999999999999</v>
       </c>
       <c r="I58" s="2">
-        <v>0.20119999999999999</v>
-      </c>
-      <c r="J58" s="2">
         <v>21</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7729,19 +7508,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFBCE4C5-9634-431C-AAFF-4D506F6728FA}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>165</v>
       </c>
@@ -7755,25 +7534,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>21</v>
       </c>
@@ -7786,27 +7562,23 @@
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2" t="str">
-        <f>B2&amp;C2&amp;D2</f>
-        <v>MUJEPUNTDEPO</v>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="2">
+      <c r="G2" s="2">
         <v>23.68</v>
       </c>
-      <c r="I2" s="28">
+      <c r="H2" s="23">
         <v>0.754</v>
       </c>
-      <c r="J2" s="2">
+      <c r="I2" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>11</v>
       </c>
@@ -7819,27 +7591,23 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="str">
-        <f t="shared" ref="E3:E58" si="0">B3&amp;C3&amp;D3</f>
-        <v>HOMBZATOCASU</v>
+      <c r="E3" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="2">
+      <c r="G3" s="2">
         <v>35.979999999999997</v>
       </c>
-      <c r="I3" s="28">
+      <c r="H3" s="23">
         <v>0.75660000000000005</v>
       </c>
-      <c r="J3" s="2">
+      <c r="I3" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>53</v>
       </c>
@@ -7852,27 +7620,23 @@
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑUZAPAOUTD</v>
+      <c r="E4" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="2">
+      <c r="G4" s="2">
         <v>36.44</v>
       </c>
-      <c r="I4" s="28">
+      <c r="H4" s="23">
         <v>0.87119999999999997</v>
       </c>
-      <c r="J4" s="2">
+      <c r="I4" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>9</v>
       </c>
@@ -7885,27 +7649,23 @@
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBZAPAOUTD</v>
+      <c r="E5" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="2">
+      <c r="G5" s="2">
         <v>39.44</v>
       </c>
-      <c r="I5" s="28">
+      <c r="H5" s="23">
         <v>0.77949999999999997</v>
       </c>
-      <c r="J5" s="2">
+      <c r="I5" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -7918,27 +7678,23 @@
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBSANDCASU</v>
+      <c r="E6" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="2">
+      <c r="G6" s="2">
         <v>41.38</v>
       </c>
-      <c r="I6" s="28">
+      <c r="H6" s="23">
         <v>0.89739999999999998</v>
       </c>
-      <c r="J6" s="2">
+      <c r="I6" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -7951,27 +7707,23 @@
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBBOTIOUTD</v>
+      <c r="E7" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="2">
+      <c r="G7" s="2">
         <v>45.4</v>
       </c>
-      <c r="I7" s="28">
+      <c r="H7" s="23">
         <v>0.78459999999999996</v>
       </c>
-      <c r="J7" s="2">
+      <c r="I7" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45</v>
       </c>
@@ -7984,27 +7736,23 @@
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑMSANDCASU</v>
+      <c r="E8" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="2">
+      <c r="G8" s="2">
         <v>48.75</v>
       </c>
-      <c r="I8" s="28">
+      <c r="H8" s="23">
         <v>0.7329</v>
       </c>
-      <c r="J8" s="2">
+      <c r="I8" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>16</v>
       </c>
@@ -8017,27 +7765,23 @@
       <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEBOTACASU</v>
+      <c r="E9" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="2">
+      <c r="G9" s="2">
         <v>48.75</v>
       </c>
-      <c r="I9" s="28">
+      <c r="H9" s="23">
         <v>0.94</v>
       </c>
-      <c r="J9" s="2">
+      <c r="I9" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>36</v>
       </c>
@@ -8050,27 +7794,23 @@
       <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑHSANDCASU</v>
+      <c r="E10" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="2">
+      <c r="G10" s="2">
         <v>50.06</v>
       </c>
-      <c r="I10" s="28">
+      <c r="H10" s="23">
         <v>0.86939999999999995</v>
       </c>
-      <c r="J10" s="2">
+      <c r="I10" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -8083,27 +7823,23 @@
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBZATOVEST</v>
+      <c r="E11" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="2">
+      <c r="G11" s="2">
         <v>65.27</v>
       </c>
-      <c r="I11" s="28">
+      <c r="H11" s="23">
         <v>0.90949999999999998</v>
       </c>
-      <c r="J11" s="2">
+      <c r="I11" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>29</v>
       </c>
@@ -8116,27 +7852,23 @@
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEZAPAURBA</v>
+      <c r="E12" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="2">
+      <c r="G12" s="2">
         <v>69.64</v>
       </c>
-      <c r="I12" s="28">
+      <c r="H12" s="23">
         <v>0.76910000000000001</v>
       </c>
-      <c r="J12" s="2">
+      <c r="I12" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>15</v>
       </c>
@@ -8149,27 +7881,23 @@
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEBOAGDISE</v>
+      <c r="E13" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="2">
+      <c r="G13" s="2">
         <v>70.95</v>
       </c>
-      <c r="I13" s="28">
+      <c r="H13" s="23">
         <v>0.8145</v>
       </c>
-      <c r="J13" s="2">
+      <c r="I13" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>44</v>
       </c>
@@ -8182,27 +7910,23 @@
       <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑMBOTICASU</v>
+      <c r="E14" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="2">
+      <c r="G14" s="2">
         <v>71.84</v>
       </c>
-      <c r="I14" s="28">
+      <c r="H14" s="23">
         <v>0.80700000000000005</v>
       </c>
-      <c r="J14" s="2">
+      <c r="I14" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>17</v>
       </c>
@@ -8215,27 +7939,23 @@
       <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEBOTICASU</v>
+      <c r="E15" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="2">
+      <c r="G15" s="2">
         <v>72.650000000000006</v>
       </c>
-      <c r="I15" s="28">
+      <c r="H15" s="23">
         <v>0.83679999999999999</v>
       </c>
-      <c r="J15" s="2">
+      <c r="I15" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>19</v>
       </c>
@@ -8248,27 +7968,23 @@
       <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEEVAPANT</v>
+      <c r="E16" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="2">
+      <c r="G16" s="2">
         <v>74.239999999999995</v>
       </c>
-      <c r="I16" s="28">
+      <c r="H16" s="23">
         <v>0.37469999999999998</v>
       </c>
-      <c r="J16" s="2">
+      <c r="I16" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>20</v>
       </c>
@@ -8281,27 +7997,23 @@
       <c r="D17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEPUNTCASU</v>
+      <c r="E17" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="2">
+      <c r="G17" s="2">
         <v>75.11</v>
       </c>
-      <c r="I17" s="28">
+      <c r="H17" s="23">
         <v>0.3569</v>
       </c>
-      <c r="J17" s="2">
+      <c r="I17" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>31</v>
       </c>
@@ -8314,27 +8026,23 @@
       <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEZATOFIES</v>
+      <c r="E18" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="2">
+      <c r="G18" s="2">
         <v>75.790000000000006</v>
       </c>
-      <c r="I18" s="28">
+      <c r="H18" s="23">
         <v>0.11119999999999999</v>
       </c>
-      <c r="J18" s="2">
+      <c r="I18" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>47</v>
       </c>
@@ -8347,27 +8055,23 @@
       <c r="D19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑMZAPAURBA</v>
+      <c r="E19" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H19" s="2">
+      <c r="G19" s="2">
         <v>76.67</v>
       </c>
-      <c r="I19" s="28">
+      <c r="H19" s="23">
         <v>0.65390000000000004</v>
       </c>
-      <c r="J19" s="2">
+      <c r="I19" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>30</v>
       </c>
@@ -8380,27 +8084,23 @@
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEZATOCASU</v>
+      <c r="E20" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="2">
+      <c r="G20" s="2">
         <v>77.28</v>
       </c>
-      <c r="I20" s="28">
+      <c r="H20" s="23">
         <v>0.55730000000000002</v>
       </c>
-      <c r="J20" s="2">
+      <c r="I20" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43</v>
       </c>
@@ -8413,27 +8113,23 @@
       <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑMBOTACASU</v>
+      <c r="E21" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="2">
+      <c r="G21" s="2">
         <v>80.63</v>
       </c>
-      <c r="I21" s="28">
+      <c r="H21" s="23">
         <v>0.93910000000000005</v>
       </c>
-      <c r="J21" s="2">
+      <c r="I21" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>23</v>
       </c>
@@ -8446,27 +8142,23 @@
       <c r="D22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJESANDDEPO</v>
+      <c r="E22" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="2">
+      <c r="G22" s="2">
         <v>80.81</v>
       </c>
-      <c r="I22" s="28">
+      <c r="H22" s="23">
         <v>0.67710000000000004</v>
       </c>
-      <c r="J22" s="2">
+      <c r="I22" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>28</v>
       </c>
@@ -8479,27 +8171,23 @@
       <c r="D23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEZAPASERV</v>
+      <c r="E23" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H23" s="2">
+      <c r="G23" s="2">
         <v>81.040000000000006</v>
       </c>
-      <c r="I23" s="28">
+      <c r="H23" s="23">
         <v>0.62890000000000001</v>
       </c>
-      <c r="J23" s="2">
+      <c r="I23" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>13</v>
       </c>
@@ -8512,27 +8200,23 @@
       <c r="D24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEAQUANA</v>
+      <c r="E24" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H24" s="2">
+      <c r="G24" s="2">
         <v>88.4</v>
       </c>
-      <c r="I24" s="28">
+      <c r="H24" s="23">
         <v>0.45229999999999998</v>
       </c>
-      <c r="J24" s="2">
+      <c r="I24" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -8545,27 +8229,23 @@
       <c r="D25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJESANDPLAY</v>
+      <c r="E25" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="2">
+      <c r="G25" s="2">
         <v>93.97</v>
       </c>
-      <c r="I25" s="28">
+      <c r="H25" s="23">
         <v>0.82520000000000004</v>
       </c>
-      <c r="J25" s="2">
+      <c r="I25" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>26</v>
       </c>
@@ -8578,27 +8258,23 @@
       <c r="D26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEZAPADEPO</v>
+      <c r="E26" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="2">
+      <c r="G26" s="2">
         <v>99.2</v>
       </c>
-      <c r="I26" s="28">
+      <c r="H26" s="23">
         <v>0.65410000000000001</v>
       </c>
-      <c r="J26" s="2">
+      <c r="I26" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>55</v>
       </c>
@@ -8611,27 +8287,23 @@
       <c r="D27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑUZATOCASU</v>
+      <c r="E27" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H27" s="2">
+      <c r="G27" s="2">
         <v>102.57</v>
       </c>
-      <c r="I27" s="28">
+      <c r="H27" s="23">
         <v>0.48830000000000001</v>
       </c>
-      <c r="J27" s="2">
+      <c r="I27" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>37</v>
       </c>
@@ -8644,27 +8316,23 @@
       <c r="D28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑHZAPADEPO</v>
+      <c r="E28" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="2">
+      <c r="G28" s="2">
         <v>112.49</v>
       </c>
-      <c r="I28" s="28">
+      <c r="H28" s="23">
         <v>0.79630000000000001</v>
       </c>
-      <c r="J28" s="2">
+      <c r="I28" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>38</v>
       </c>
@@ -8677,27 +8345,23 @@
       <c r="D29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑHZAPAOUTD</v>
+      <c r="E29" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H29" s="2">
+      <c r="G29" s="2">
         <v>115.02</v>
       </c>
-      <c r="I29" s="28">
+      <c r="H29" s="23">
         <v>0.25890000000000002</v>
       </c>
-      <c r="J29" s="2">
+      <c r="I29" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>6</v>
       </c>
@@ -8710,27 +8374,23 @@
       <c r="D30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBSANDPLAY</v>
+      <c r="E30" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H30" s="2">
+      <c r="G30" s="2">
         <v>115.25</v>
       </c>
-      <c r="I30" s="28">
+      <c r="H30" s="23">
         <v>0.85350000000000004</v>
       </c>
-      <c r="J30" s="2">
+      <c r="I30" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>0</v>
       </c>
@@ -8743,27 +8403,23 @@
       <c r="D31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBBOAGBASI</v>
+      <c r="E31" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H31" s="2">
+      <c r="G31" s="2">
         <v>119.93</v>
       </c>
-      <c r="I31" s="28">
+      <c r="H31" s="23">
         <v>0.42980000000000002</v>
       </c>
-      <c r="J31" s="2">
+      <c r="I31" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -8776,27 +8432,23 @@
       <c r="D32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBBOTICASU</v>
+      <c r="E32" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H32" s="2">
+      <c r="G32" s="2">
         <v>126.04</v>
       </c>
-      <c r="I32" s="28">
+      <c r="H32" s="23">
         <v>0.90400000000000003</v>
       </c>
-      <c r="J32" s="2">
+      <c r="I32" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>52</v>
       </c>
@@ -8809,27 +8461,23 @@
       <c r="D33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑUZAPADEPO</v>
+      <c r="E33" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H33" s="2">
+      <c r="G33" s="2">
         <v>128.09</v>
       </c>
-      <c r="I33" s="28">
+      <c r="H33" s="23">
         <v>0.4415</v>
       </c>
-      <c r="J33" s="2">
+      <c r="I33" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>3</v>
       </c>
@@ -8842,27 +8490,23 @@
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBBOTIVEST</v>
+      <c r="E34" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H34" s="2">
+      <c r="G34" s="2">
         <v>134.84</v>
       </c>
-      <c r="I34" s="28">
+      <c r="H34" s="23">
         <v>0.85450000000000004</v>
       </c>
-      <c r="J34" s="2">
+      <c r="I34" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>49</v>
       </c>
@@ -8875,27 +8519,23 @@
       <c r="D35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑUAQUANA</v>
+      <c r="E35" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H35" s="2">
+      <c r="G35" s="2">
         <v>141.77000000000001</v>
       </c>
-      <c r="I35" s="28">
+      <c r="H35" s="23">
         <v>0.74490000000000001</v>
       </c>
-      <c r="J35" s="2">
+      <c r="I35" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>48</v>
       </c>
@@ -8908,27 +8548,23 @@
       <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑMZATOVEST</v>
+      <c r="E36" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H36" s="2">
+      <c r="G36" s="2">
         <v>141.80000000000001</v>
       </c>
-      <c r="I36" s="28">
+      <c r="H36" s="23">
         <v>0.74439999999999995</v>
       </c>
-      <c r="J36" s="2">
+      <c r="I36" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>5</v>
       </c>
@@ -8941,27 +8577,23 @@
       <c r="D37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBSANDOUTD</v>
+      <c r="E37" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H37" s="2">
+      <c r="G37" s="2">
         <v>145.9</v>
       </c>
-      <c r="I37" s="28">
+      <c r="H37" s="23">
         <v>0.48399999999999999</v>
       </c>
-      <c r="J37" s="2">
+      <c r="I37" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>27</v>
       </c>
@@ -8974,27 +8606,23 @@
       <c r="D38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEZAPAOUTD</v>
+      <c r="E38" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G38" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H38" s="2">
+      <c r="G38" s="2">
         <v>150.52000000000001</v>
       </c>
-      <c r="I38" s="28">
+      <c r="H38" s="23">
         <v>0.51539999999999997</v>
       </c>
-      <c r="J38" s="2">
+      <c r="I38" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>8</v>
       </c>
@@ -9007,27 +8635,23 @@
       <c r="D39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBZAPAFUTB</v>
+      <c r="E39" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G39" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="2">
+      <c r="G39" s="2">
         <v>151.44999999999999</v>
       </c>
-      <c r="I39" s="28">
+      <c r="H39" s="23">
         <v>0.74219999999999997</v>
       </c>
-      <c r="J39" s="2">
+      <c r="I39" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>10</v>
       </c>
@@ -9040,27 +8664,23 @@
       <c r="D40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBZAPAURBA</v>
+      <c r="E40" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G40" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H40" s="2">
+      <c r="G40" s="2">
         <v>155.06</v>
       </c>
-      <c r="I40" s="28">
+      <c r="H40" s="23">
         <v>0.76290000000000002</v>
       </c>
-      <c r="J40" s="2">
+      <c r="I40" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>34</v>
       </c>
@@ -9073,27 +8693,23 @@
       <c r="D41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑHBOTICASU</v>
+      <c r="E41" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G41" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H41" s="2">
+      <c r="G41" s="2">
         <v>157.82</v>
       </c>
-      <c r="I41" s="28">
+      <c r="H41" s="23">
         <v>0.2429</v>
       </c>
-      <c r="J41" s="2">
+      <c r="I41" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>51</v>
       </c>
@@ -9106,27 +8722,23 @@
       <c r="D42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑUSANDCASU</v>
+      <c r="E42" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G42" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H42" s="2">
+      <c r="G42" s="2">
         <v>177.36</v>
       </c>
-      <c r="I42" s="28">
+      <c r="H42" s="23">
         <v>0.6623</v>
       </c>
-      <c r="J42" s="2">
+      <c r="I42" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>32</v>
       </c>
@@ -9139,27 +8751,23 @@
       <c r="D43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEZATOVEST</v>
+      <c r="E43" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G43" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H43" s="2">
+      <c r="G43" s="2">
         <v>177.55</v>
       </c>
-      <c r="I43" s="28">
+      <c r="H43" s="23">
         <v>0.90890000000000004</v>
       </c>
-      <c r="J43" s="2">
+      <c r="I43" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>56</v>
       </c>
@@ -9172,27 +8780,23 @@
       <c r="D44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>UNIXZAPAURBA</v>
+      <c r="E44" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G44" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H44" s="2">
+      <c r="G44" s="2">
         <v>177.75</v>
       </c>
-      <c r="I44" s="28">
+      <c r="H44" s="23">
         <v>0.63009999999999999</v>
       </c>
-      <c r="J44" s="2">
+      <c r="I44" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -9205,27 +8809,23 @@
       <c r="D45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑMBOAGBASI</v>
+      <c r="E45" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G45" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H45" s="2">
+      <c r="G45" s="2">
         <v>188.71</v>
       </c>
-      <c r="I45" s="28">
+      <c r="H45" s="23">
         <v>0.68879999999999997</v>
       </c>
-      <c r="J45" s="2">
+      <c r="I45" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>14</v>
       </c>
@@ -9238,27 +8838,23 @@
       <c r="D46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEBOAGBASI</v>
+      <c r="E46" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G46" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H46" s="2">
+      <c r="G46" s="2">
         <v>204.41</v>
       </c>
-      <c r="I46" s="28">
+      <c r="H46" s="23">
         <v>0.6764</v>
       </c>
-      <c r="J46" s="2">
+      <c r="I46" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>7</v>
       </c>
@@ -9271,27 +8867,23 @@
       <c r="D47" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>HOMBZAPADEPO</v>
+      <c r="E47" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G47" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H47" s="2">
+      <c r="G47" s="2">
         <v>233.13</v>
       </c>
-      <c r="I47" s="28">
+      <c r="H47" s="23">
         <v>0.48359999999999997</v>
       </c>
-      <c r="J47" s="2">
+      <c r="I47" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -9304,27 +8896,23 @@
       <c r="D48" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑMZAPADEPO</v>
+      <c r="E48" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G48" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H48" s="2">
+      <c r="G48" s="2">
         <v>239.37</v>
       </c>
-      <c r="I48" s="28">
+      <c r="H48" s="23">
         <v>0.26640000000000003</v>
       </c>
-      <c r="J48" s="2">
+      <c r="I48" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>54</v>
       </c>
@@ -9337,27 +8925,23 @@
       <c r="D49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑUZAPAURBA</v>
+      <c r="E49" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H49" s="2">
+      <c r="G49" s="2">
         <v>241.76</v>
       </c>
-      <c r="I49" s="28">
+      <c r="H49" s="23">
         <v>0.37140000000000001</v>
       </c>
-      <c r="J49" s="2">
+      <c r="I49" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>50</v>
       </c>
@@ -9370,27 +8954,23 @@
       <c r="D50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑUBOTICASU</v>
+      <c r="E50" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G50" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H50" s="2">
+      <c r="G50" s="2">
         <v>245.53</v>
       </c>
-      <c r="I50" s="28">
+      <c r="H50" s="23">
         <v>0.44319999999999998</v>
       </c>
-      <c r="J50" s="2">
+      <c r="I50" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>33</v>
       </c>
@@ -9403,27 +8983,23 @@
       <c r="D51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑHBOAGDISE</v>
+      <c r="E51" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G51" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H51" s="2">
+      <c r="G51" s="2">
         <v>255.75</v>
       </c>
-      <c r="I51" s="28">
+      <c r="H51" s="23">
         <v>0.85609999999999997</v>
       </c>
-      <c r="J51" s="2">
+      <c r="I51" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>18</v>
       </c>
@@ -9436,27 +9012,23 @@
       <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJEBOTIVEST</v>
+      <c r="E52" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G52" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H52" s="2">
+      <c r="G52" s="2">
         <v>265.27999999999997</v>
       </c>
-      <c r="I52" s="28">
+      <c r="H52" s="23">
         <v>0.31309999999999999</v>
       </c>
-      <c r="J52" s="2">
+      <c r="I52" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>42</v>
       </c>
@@ -9469,27 +9041,23 @@
       <c r="D53" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑMBOAGDISE</v>
+      <c r="E53" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G53" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H53" s="2">
+      <c r="G53" s="2">
         <v>319.60000000000002</v>
       </c>
-      <c r="I53" s="28">
+      <c r="H53" s="23">
         <v>0.27789999999999998</v>
       </c>
-      <c r="J53" s="2">
+      <c r="I53" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>39</v>
       </c>
@@ -9502,27 +9070,23 @@
       <c r="D54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑHZAPAURBA</v>
+      <c r="E54" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G54" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="H54" s="2">
+      <c r="G54" s="2">
         <v>322.7</v>
       </c>
-      <c r="I54" s="28">
+      <c r="H54" s="23">
         <v>0.4471</v>
       </c>
-      <c r="J54" s="2">
+      <c r="I54" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>25</v>
       </c>
@@ -9535,27 +9099,23 @@
       <c r="D55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJESANDVEST</v>
+      <c r="E55" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G55" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H55" s="2">
+      <c r="G55" s="2">
         <v>377.67</v>
       </c>
-      <c r="I55" s="28">
+      <c r="H55" s="23">
         <v>0.56520000000000004</v>
       </c>
-      <c r="J55" s="2">
+      <c r="I55" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>40</v>
       </c>
@@ -9568,27 +9128,23 @@
       <c r="D56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑHZATOVEST</v>
+      <c r="E56" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G56" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H56" s="2">
+      <c r="G56" s="2">
         <v>503.88</v>
       </c>
-      <c r="I56" s="28">
+      <c r="H56" s="23">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="J56" s="2">
+      <c r="I56" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>22</v>
       </c>
@@ -9601,27 +9157,23 @@
       <c r="D57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E57" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>MUJESANDCASU</v>
+      <c r="E57" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G57" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H57" s="2">
+      <c r="G57" s="2">
         <v>908.01</v>
       </c>
-      <c r="I57" s="28">
+      <c r="H57" s="23">
         <v>0.63449999999999995</v>
       </c>
-      <c r="J57" s="2">
+      <c r="I57" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>35</v>
       </c>
@@ -9634,23 +9186,19 @@
       <c r="D58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>NIÑHBOTIVEST</v>
+      <c r="E58" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G58" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H58" s="2">
+      <c r="G58" s="2">
         <v>949.33</v>
       </c>
-      <c r="I58" s="28">
+      <c r="H58" s="23">
         <v>0.30759999999999998</v>
       </c>
-      <c r="J58" s="2">
+      <c r="I58" s="2">
         <v>22</v>
       </c>
     </row>
